--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415090.101631117</v>
+        <v>-1417646.417458366</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>157.5487985114034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>65.33825739391169</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>126.4262622148202</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851069</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>185.6251205647918</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>123.3831158297988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.8664224582317</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.22992883261711</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>110.2472230560238</v>
+        <v>206.8977267935164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>78.8774743759912</v>
       </c>
       <c r="D8" t="n">
-        <v>237.4416321059432</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>180.317034524002</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>85.93125454969459</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.594095449516251</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462218</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>23.10998325717215</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.5157480654966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011944</v>
+        <v>53.07327741456176</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999724</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>141.9101287729429</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892427578</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>261.5505590167096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>48.8549711274516</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>272.8976078885847</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>182.6625718220546</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>7.069540131683943</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1047.597637439303</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>678.6351204988913</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>678.6351204988913</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2881.634110354002</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2550.571223010431</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2197.802567740317</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1824.336809479237</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1434.197477503425</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080113</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986287</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
         <v>3167.96426396257</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491682</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
         <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>733.3868840355669</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="X4" t="n">
-        <v>867.4865790926983</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="Y4" t="n">
-        <v>646.6939999491682</v>
+        <v>608.7574741064773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3268.807913697436</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3062.830166081658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.830166081658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145372</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W7" t="n">
-        <v>396.0736748448162</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="X7" t="n">
-        <v>396.0736748448162</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.0736748448162</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1758.295537883726</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.69844747624</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.7590362090544</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>738.7485871070718</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V10" t="n">
-        <v>738.7485871070718</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W10" t="n">
-        <v>738.7485871070718</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X10" t="n">
-        <v>510.7590362090544</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.7590362090544</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>2418.621364762389</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>2913.946970978148</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>3511.3254586047</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>4138.923422159307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253712</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429782</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429782</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578581</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,28 +5294,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5370,10 +5370,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622284</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343215</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2393.353712454441</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832665</v>
+        <v>2210.498878109345</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832665</v>
+        <v>1990.897413132287</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176863</v>
+        <v>1701.822186476484</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970976</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934015</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035998</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892468</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694694</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,40 +5577,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270383</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X22" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,43 +6051,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>464.5051450557708</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,16 +6236,16 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
         <v>929.7309773356195</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450254</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.721406539404</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>854.7852236114967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>704.6685841991609</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>556.7554906167678</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>409.8655431188574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6694438337374</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9576126759355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.369871369643</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6844,25 +6844,25 @@
         <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>224.3815715608584</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>345.5834682595417</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>33.92382871137742</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.8432329308055</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0213775686961</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>58.15585306139337</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>34.0997249527158</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.3019692955599</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909865548</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>83.79952661609423</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194814</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>97.57899151911758</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104.8770068749577</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>13.28686650065941</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>69.47507150177336</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.1962961868816</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049363.273544795</v>
+        <v>1049363.273544797</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1266325.828644818</v>
+        <v>1266325.828644817</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1266325.828644818</v>
+        <v>1266325.828644817</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1266325.828644818</v>
+        <v>1266325.828644817</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26329,28 +26329,28 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
+        <v>161429.3199380011</v>
+      </c>
+      <c r="I2" t="n">
+        <v>161429.3199380011</v>
+      </c>
+      <c r="J2" t="n">
         <v>161429.3199380012</v>
-      </c>
-      <c r="I2" t="n">
-        <v>161429.3199380012</v>
-      </c>
-      <c r="J2" t="n">
-        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728569</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728568</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-9.492786681146063e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972797</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691495</v>
+        <v>11387.33216691531</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.5839718919</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498546</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="N4" t="n">
         <v>24037.44323498545</v>
       </c>
-      <c r="M4" t="n">
-        <v>24037.44323498547</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498544</v>
-      </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498544</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312664.305740444</v>
+        <v>-1313024.388756161</v>
       </c>
       <c r="C6" t="n">
-        <v>-37322.33069258914</v>
+        <v>-37322.33069258915</v>
       </c>
       <c r="D6" t="n">
-        <v>-37322.33069258917</v>
+        <v>-37322.33069258912</v>
       </c>
       <c r="E6" t="n">
-        <v>-281152.2556651532</v>
+        <v>-281186.9935905889</v>
       </c>
       <c r="F6" t="n">
-        <v>44260.20614220212</v>
+        <v>44225.46821676653</v>
       </c>
       <c r="G6" t="n">
-        <v>44260.20614220209</v>
+        <v>44225.46821676911</v>
       </c>
       <c r="H6" t="n">
-        <v>44260.20614220209</v>
+        <v>44225.4682167664</v>
       </c>
       <c r="I6" t="n">
-        <v>44260.20614220209</v>
+        <v>44225.4682167664</v>
       </c>
       <c r="J6" t="n">
-        <v>-173270.9962550754</v>
+        <v>-173305.7341805133</v>
       </c>
       <c r="K6" t="n">
-        <v>44260.20614220209</v>
+        <v>44225.4682167664</v>
       </c>
       <c r="L6" t="n">
-        <v>17579.07689032423</v>
+        <v>17579.07689032401</v>
       </c>
       <c r="M6" t="n">
-        <v>-48048.23305155602</v>
+        <v>-48048.23305155589</v>
       </c>
       <c r="N6" t="n">
-        <v>37006.79488395603</v>
+        <v>37006.79488395594</v>
       </c>
       <c r="O6" t="n">
+        <v>37006.79488395579</v>
+      </c>
+      <c r="P6" t="n">
         <v>37006.79488395597</v>
-      </c>
-      <c r="P6" t="n">
-        <v>37006.79488395594</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26750,13 +26750,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.469477151088675e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.814469771197702e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.469477151088675e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>124.5689097440818</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>162.8287223758141</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.95783295555873</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>176.2757752805672</v>
+        <v>79.62527154307463</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>286.3954173950164</v>
       </c>
       <c r="D8" t="n">
-        <v>117.2414095147398</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>105.8948036816109</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>132.6533988024002</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28260,10 +28260,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.072674516261282e-12</v>
       </c>
       <c r="H13" t="n">
-        <v>2.061875451984413e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.250406124539427e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305189</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>595.3857163736978</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460181</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162716</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8027404478649</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>675.952017818248</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516795</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O18" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243313</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462844</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>310.2064960034205</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>533.3557733738036</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
